--- a/Docum/Расчет.xlsx
+++ b/Docum/Расчет.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateDelta="9.9999999999999995E-8"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -160,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,15 +183,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -203,6 +211,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -241,46 +253,52 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:trendline>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10896522309711286"/>
+                  <c:y val="-0.61809055118110234"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.0000000000" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$I$5:$I$7</c:f>
+              <c:f>Лист1!$I$25:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>84.3</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.5</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$J$5:$J$7</c:f>
+              <c:f>Лист1!$J$25:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,11 +313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95336704"/>
-        <c:axId val="95335168"/>
+        <c:axId val="30014080"/>
+        <c:axId val="30155136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95336704"/>
+        <c:axId val="30014080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,12 +327,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95335168"/>
+        <c:crossAx val="30155136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95335168"/>
+        <c:axId val="30155136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -325,7 +343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95336704"/>
+        <c:crossAx val="30014080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -371,15 +389,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10896522309711286"/>
-                  <c:y val="-0.61809055118110234"/>
+                  <c:x val="0.20999224837827915"/>
+                  <c:y val="7.1631962762598575E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.0000000000" sourceLinked="0"/>
@@ -387,36 +404,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$I$23:$I$25</c:f>
+              <c:f>Лист1!$I$21:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>761</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>193</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$J$23:$J$25</c:f>
+              <c:f>Лист1!$J$21:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,11 +442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136637056"/>
-        <c:axId val="136635520"/>
+        <c:axId val="32077312"/>
+        <c:axId val="31751552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136637056"/>
+        <c:axId val="32077312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,12 +456,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136635520"/>
+        <c:crossAx val="31751552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136635520"/>
+        <c:axId val="31751552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136637056"/>
+        <c:crossAx val="32077312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -675,11 +686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136724864"/>
-        <c:axId val="95062656"/>
+        <c:axId val="30369664"/>
+        <c:axId val="30371200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136724864"/>
+        <c:axId val="30369664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,12 +700,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95062656"/>
+        <c:crossAx val="30371200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95062656"/>
+        <c:axId val="30371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,14 +716,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136724864"/>
+        <c:crossAx val="30369664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -732,19 +742,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -762,19 +772,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1116,27 +1126,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1144,10 +1154,10 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
-        <v>84.3</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="2">
+        <v>39650</v>
+      </c>
+      <c r="J5" s="2">
         <v>-40</v>
       </c>
     </row>
@@ -1155,48 +1165,63 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
-        <v>100</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
+      <c r="I6" s="2">
+        <v>23022</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="3">
-        <v>115.5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>40</v>
+      <c r="I7" s="2">
+        <v>13843</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-20</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="2">
+        <v>8592</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>12</v>
+      <c r="I9" s="7">
+        <v>5489</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="7">
+        <v>3600</v>
+      </c>
+      <c r="J10" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>273</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+      <c r="I11" s="7">
+        <v>2419</v>
+      </c>
+      <c r="J11" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1214,12 +1239,11 @@
         <f>D12*32</f>
         <v>7456</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <f>2.5641*I11-256.24</f>
-        <v>2051.4499999999998</v>
+      <c r="I12" s="7">
+        <v>1662</v>
+      </c>
+      <c r="J12" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1237,6 +1261,15 @@
         <f t="shared" ref="E13:E14" si="1">D13*32</f>
         <v>8736</v>
       </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1165</v>
+      </c>
+      <c r="J13" s="7">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -1253,6 +1286,41 @@
         <f t="shared" si="1"/>
         <v>10016</v>
       </c>
+      <c r="I14" s="7">
+        <v>833</v>
+      </c>
+      <c r="J14" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>900</v>
+      </c>
+      <c r="I15" s="7">
+        <v>606</v>
+      </c>
+      <c r="J15" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <f>2.5641*H15-256.24</f>
+        <v>2051.4499999999998</v>
+      </c>
+      <c r="I16" s="7">
+        <v>447</v>
+      </c>
+      <c r="J16" s="7">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
@@ -1265,52 +1333,98 @@
         <f>1/0.03125</f>
         <v>32</v>
       </c>
+      <c r="I17" s="7">
+        <v>336</v>
+      </c>
+      <c r="J17" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="7">
+        <v>255</v>
+      </c>
+      <c r="J18" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="7">
+        <v>197</v>
+      </c>
+      <c r="J19" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="7">
+        <v>154</v>
+      </c>
+      <c r="J20" s="7">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="I21" s="7">
+        <v>121</v>
+      </c>
+      <c r="J21" s="7">
+        <v>120</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>16</v>
+      <c r="I22" s="7">
+        <v>97</v>
+      </c>
+      <c r="J22" s="7">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="3">
-        <v>761</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <v>761</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
         <v>390</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J26" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I25" s="3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
         <v>193</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J27" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1337,7 +1451,7 @@
       </c>
     </row>
     <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="5" t="s">
         <v>19</v>
       </c>
     </row>
